--- a/Projects/2. Walmart Store Sales Forecasting/solution.xlsx
+++ b/Projects/2. Walmart Store Sales Forecasting/solution.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Project Expectations" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Solution" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,41 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="106">
   <si>
     <t>Approach for the problem</t>
   </si>
   <si>
-    <t>Type of problem</t>
-  </si>
-  <si>
-    <t>X, Y</t>
-  </si>
-  <si>
-    <t>Algorithms</t>
-  </si>
-  <si>
-    <t>Mechanism to validate</t>
-  </si>
-  <si>
     <t>Data understanding</t>
   </si>
   <si>
-    <t>Univariate analysis</t>
-  </si>
-  <si>
-    <t>Bivariate analysis</t>
-  </si>
-  <si>
-    <t>Assumptions based on the data understanding</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
     <t>Train</t>
   </si>
   <si>
@@ -72,75 +44,9 @@
     <t>Final tuning parameters</t>
   </si>
   <si>
-    <t>Drivers</t>
-  </si>
-  <si>
-    <t>Business output</t>
-  </si>
-  <si>
-    <t>Business problems</t>
-  </si>
-  <si>
-    <t>Y &amp; X (definition of Y &amp; X)</t>
-  </si>
-  <si>
-    <t>Waterflow chart for variable finalization</t>
-  </si>
-  <si>
-    <t>Final models across models</t>
-  </si>
-  <si>
-    <t>Business intrepretation</t>
-  </si>
-  <si>
-    <t>Quanitify business output from this model</t>
-  </si>
-  <si>
-    <t>Detailed data preparations</t>
-  </si>
-  <si>
-    <t>100 variables</t>
-  </si>
-  <si>
-    <t>5 variables dropped because of low variations in the data</t>
-  </si>
-  <si>
-    <t>95 variables</t>
-  </si>
-  <si>
-    <t>5 variables dropped because of high missings</t>
-  </si>
-  <si>
-    <t>92 variables</t>
-  </si>
-  <si>
-    <t>3 variabels dropped because of high correlation with other variables</t>
-  </si>
-  <si>
-    <t>50 variables</t>
-  </si>
-  <si>
-    <t>40 variables</t>
-  </si>
-  <si>
-    <t>10 variables dropped using VIF</t>
-  </si>
-  <si>
-    <t>10 variables</t>
-  </si>
-  <si>
-    <t>using P-value of estimates</t>
-  </si>
-  <si>
     <t>Define train &amp; test</t>
   </si>
   <si>
-    <t>Detailed model output</t>
-  </si>
-  <si>
-    <t>Final mathematical equation</t>
-  </si>
-  <si>
     <t>MAPE</t>
   </si>
   <si>
@@ -153,127 +59,31 @@
     <t>Decile analysis</t>
   </si>
   <si>
-    <t>share detailed code with comments</t>
-  </si>
-  <si>
     <t>Feature Engineering</t>
   </si>
   <si>
-    <t>Variable transformations, new variable creations, variable reduction</t>
-  </si>
-  <si>
-    <t>The resons for splitting, Y variable distribution, observations distribution etc</t>
-  </si>
-  <si>
-    <t>Final mathematical equation where ever applicable</t>
-  </si>
-  <si>
-    <t>Making sure that all the pre-requisites taken care</t>
-  </si>
-  <si>
-    <t>Compare all the metrics for all the models (at least 3 models)</t>
-  </si>
-  <si>
-    <t>Good of fit metrics(Example for regression problem)</t>
-  </si>
-  <si>
-    <t>M3</t>
-  </si>
-  <si>
-    <t>M4</t>
-  </si>
-  <si>
     <t>Key Drivers</t>
   </si>
   <si>
-    <t>Variable reduction (Regression problem)</t>
-  </si>
-  <si>
-    <t>Distributions</t>
-  </si>
-  <si>
     <t>Data exploratory analysis</t>
   </si>
   <si>
-    <t>Implementation code for new data based on final model choosen</t>
-  </si>
-  <si>
-    <t>Provide detail insights</t>
-  </si>
-  <si>
-    <t>Missing treatment, Outlier treatment, dummies creations, multi collineirity etc</t>
-  </si>
-  <si>
-    <t>Detailed Data audit report with all the possible outputs (variable level, file level)</t>
-  </si>
-  <si>
     <t>Residual Analysis</t>
   </si>
   <si>
     <t>Business problem/objective</t>
   </si>
   <si>
-    <t>positive/negative</t>
-  </si>
-  <si>
-    <t>Share the detailed excel/word document with all the above outputs</t>
-  </si>
-  <si>
-    <t>Detailed profiling outputs &amp; characteristics of segments, strategies for segments etc (for segmentation problems)</t>
-  </si>
-  <si>
     <t>Recommendations &amp; next steps</t>
   </si>
   <si>
-    <t>Suggestions on model tracking/model monetoring to ensure model works in future</t>
-  </si>
-  <si>
-    <t>Model outputs from the tool (compare multiple iterations)</t>
-  </si>
-  <si>
-    <t>Relative importance/variable importance</t>
-  </si>
-  <si>
     <t>Model pre-requisites/Model assumptions</t>
   </si>
   <si>
-    <t>Outputs through pptx</t>
-  </si>
-  <si>
     <t>Pros &amp; cons of the models</t>
   </si>
   <si>
-    <t>Pros &amp; cons of the model</t>
-  </si>
-  <si>
-    <t>Rules  and metrics</t>
-  </si>
-  <si>
-    <t>how did you choose the rules &amp; their intrepretations for MBA - implementation plan</t>
-  </si>
-  <si>
     <t>R-square (only for train)</t>
-  </si>
-  <si>
-    <t>using Kbest, RFE (stepwise regression), F-regression(Univariate regression), corr(Y, X), PCA etc</t>
-  </si>
-  <si>
-    <t>Implementation tool (if applicable) based on final model choosen</t>
-  </si>
-  <si>
-    <t>Detailed documentation for entire process (end to end)</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Quanitify business outcome from this model</t>
-  </si>
-  <si>
-    <t>Outputs through excel/word/ipynb/.py</t>
-  </si>
-  <si>
-    <t>Process steps Excel/Word/code/ppt</t>
   </si>
   <si>
     <t>Predict the weekly sales for each triplet of store, department and date.</t>
@@ -548,6 +358,36 @@
   </si>
   <si>
     <t>Residuals for RF Model</t>
+  </si>
+  <si>
+    <t>log_Median_WeeklySales_by_Store_Dept</t>
+  </si>
+  <si>
+    <t>log_Std_WeeklySales_by_Store_Dept</t>
+  </si>
+  <si>
+    <t>These are the key drivers of the model. As expected, these variables have positive relationship with the forecasted sales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pros: </t>
+  </si>
+  <si>
+    <t>Very reliable predictions as errors are less</t>
+  </si>
+  <si>
+    <t>Model can be used for all the stores and departments</t>
+  </si>
+  <si>
+    <t>Cons:</t>
+  </si>
+  <si>
+    <t>High reliance on the previous weekly sales data</t>
+  </si>
+  <si>
+    <t>Any incorrect input will skew the output prediction</t>
+  </si>
+  <si>
+    <t>The model can be trained using much bigger data to improve the metrics</t>
   </si>
 </sst>
 </file>
@@ -579,7 +419,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -597,83 +437,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -797,57 +560,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1276,491 +1020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:H203"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
-    <col min="2" max="2" width="45.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="11" width="17.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="7"/>
-      <c r="D22" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="K22" s="13"/>
-    </row>
-    <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="7"/>
-      <c r="D23" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K23" s="13"/>
-    </row>
-    <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="7"/>
-      <c r="D24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="6"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" t="s">
-        <v>68</v>
-      </c>
-      <c r="F34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>70</v>
-      </c>
-      <c r="B47" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="J23:K23"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H184"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="H183" sqref="H183"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="H198" sqref="H198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1770,12 +1033,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1785,642 +1048,702 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C132" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C134" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C135" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>150</v>
+        <v>87</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B151" s="17"/>
-      <c r="C151" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="D151" s="18"/>
-      <c r="E151" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="F151" s="18"/>
-      <c r="G151" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="H151" s="19"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H151" s="9"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B152" s="20"/>
-      <c r="C152" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D152" s="16"/>
-      <c r="E152" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F152" s="16"/>
-      <c r="G152" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H152" s="21"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F152" s="10"/>
+      <c r="G152" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H152" s="11"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B153" s="20"/>
-      <c r="C153" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D153" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E153" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F153" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G153" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H153" s="22" t="s">
-        <v>12</v>
+      <c r="B153" s="4"/>
+      <c r="C153" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H153" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B154" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C154" s="15">
+      <c r="B154" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C154" s="2">
         <v>0.90500000000000003</v>
       </c>
-      <c r="D154" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="E154" s="15">
+      <c r="D154" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E154" s="2">
         <v>0.9123</v>
       </c>
-      <c r="F154" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="G154" s="15">
+      <c r="F154" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G154" s="2">
         <v>0.9123</v>
       </c>
-      <c r="H154" s="22" t="s">
-        <v>151</v>
+      <c r="H154" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B155" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C155" s="15">
+      <c r="B155" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="D155" s="15">
+      <c r="D155" s="2">
         <v>0.30249999999999999</v>
       </c>
-      <c r="E155" s="15">
+      <c r="E155" s="2">
         <v>0.30859999999999999</v>
       </c>
-      <c r="F155" s="15">
+      <c r="F155" s="2">
         <v>0.31319999999999998</v>
       </c>
-      <c r="G155" s="15">
+      <c r="G155" s="2">
         <v>0.30790000000000001</v>
       </c>
-      <c r="H155" s="22">
+      <c r="H155" s="5">
         <v>0.31240000000000001</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B156" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C156" s="15">
+      <c r="B156" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156" s="2">
         <v>0.63009999999999999</v>
       </c>
-      <c r="D156" s="15">
+      <c r="D156" s="2">
         <v>0.64090000000000003</v>
       </c>
-      <c r="E156" s="15">
+      <c r="E156" s="2">
         <v>0.60489999999999999</v>
       </c>
-      <c r="F156" s="15">
+      <c r="F156" s="2">
         <v>0.62143999999999999</v>
       </c>
-      <c r="G156" s="15">
+      <c r="G156" s="2">
         <v>0.60496000000000005</v>
       </c>
-      <c r="H156" s="22">
+      <c r="H156" s="5">
         <v>0.62160000000000004</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B157" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C157" s="15">
+      <c r="B157" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" s="2">
         <v>0.25369999999999998</v>
       </c>
-      <c r="D157" s="15">
+      <c r="D157" s="2">
         <v>0.26429999999999998</v>
       </c>
-      <c r="E157" s="15">
+      <c r="E157" s="2">
         <v>0.22439999999999999</v>
       </c>
-      <c r="F157" s="15">
+      <c r="F157" s="2">
         <v>0.2369</v>
       </c>
-      <c r="G157" s="15">
+      <c r="G157" s="2">
         <v>0.22489999999999999</v>
       </c>
-      <c r="H157" s="22">
+      <c r="H157" s="5">
         <v>0.23769999999999999</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B158" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C158" s="15">
+      <c r="B158" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" s="2">
         <v>0.95120000000000005</v>
       </c>
-      <c r="D158" s="15">
+      <c r="D158" s="2">
         <v>0.94979999999999998</v>
       </c>
-      <c r="E158" s="15">
+      <c r="E158" s="2">
         <v>0.95509999999999995</v>
       </c>
-      <c r="F158" s="15">
+      <c r="F158" s="2">
         <v>0.95289999999999997</v>
       </c>
-      <c r="G158" s="15">
+      <c r="G158" s="2">
         <v>0.95509999999999995</v>
       </c>
-      <c r="H158" s="22">
+      <c r="H158" s="5">
         <v>0.95279999999999998</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C159" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="D159" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="E159" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="F159" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="G159" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="H159" s="24" t="s">
-        <v>155</v>
+      <c r="B159" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F159" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G159" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H159" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="10" t="s">
-        <v>60</v>
+      <c r="A164" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>52</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
